--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80415.33065292895</v>
+        <v>15243411.81384642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80415.33065292895</v>
+        <v>15243411.81384642</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63179.11362401882</v>
+        <v>8015685.930130979</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63179.11362401882</v>
+        <v>8015685.930130979</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609158633.538873</v>
+        <v>57566403.27238433</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12690.76017004726</v>
+        <v>1284301.632396912</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24738.33415701415</v>
+        <v>2472927.166979846</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36774.50450761741</v>
+        <v>3659813.647017325</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50916.50074540268</v>
+        <v>4655004.903791087</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63437.1897209287</v>
+        <v>5826183.019253887</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75946.88975918894</v>
+        <v>6998918.242066857</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88889.99202123399</v>
+        <v>8263930.170826743</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101630.8556613939</v>
+        <v>9498092.529303163</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115811.7256420885</v>
+        <v>10473217.65822042</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128030.3744215443</v>
+        <v>11737735.62179496</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140267.9863295861</v>
+        <v>13002891.88318376</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152234.4113153995</v>
+        <v>14213035.9242895</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164323.4253921219</v>
+        <v>15441874.80175891</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178581.3832943336</v>
+        <v>16381255.49708899</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198316.6746013467</v>
+        <v>16557260.05634048</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>264.0000000001135</v>
@@ -27055,10 +27055,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>154.0000000001139</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>142</v>
